--- a/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3-techniques.xlsx
+++ b/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3-techniques.xlsx
@@ -1381,19 +1381,19 @@
     <t>(Citation: Joe Slowik August 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>,(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>,(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),</t>
   </si>
   <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
@@ -1402,7 +1402,7 @@
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),</t>
   </si>
   <si>
-    <t>(Citation: MDudek-ICS),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
     <t>(Citation: Dragos Inc. June 2017),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
@@ -1414,67 +1414,67 @@
     <t>(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: ESET),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: ICS-CERT August 2018),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Eduard Kovacs May 2018),(Citation: Chris Bing May 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Eduard Kovacs May 2018),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Symantec Security Response July 2014),(Citation: Chris Bing May 2018),</t>
   </si>
   <si>
     <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT December 2018),(Citation: The Office of Nuclear Reactor Regulation),(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Dan Goodin March 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Dan Goodin March 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Keith Stouffer May 2015),(Citation: Dan Goodin March 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dan Goodin March 2017),(Citation: Keith Stouffer May 2015),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
   </si>
   <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov),(Citation: Jos Wetzels January 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Davey Winder June 2020),(Citation: Hydro),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Kelly Jackson Higgins),(Citation: Kevin Beaumont),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Kelly Jackson Higgins),(Citation: Hydro),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kevin Beaumont),(Citation: Davey Winder June 2020),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Dragos October 2018),</t>
@@ -1483,10 +1483,10 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine)</t>
-  </si>
-  <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),</t>
   </si>
   <si>
     <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
@@ -1498,13 +1498,13 @@
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Ralph Langner November 2013),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
-    <t>(Citation: Dragos Threat Intelligence February 2020),(Citation: Tom Fakterman August 2019),(Citation: Dragos October 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: DHS CISA February 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: IEC February 2019)</t>
+    <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Tom Fakterman August 2019),(Citation: Dragos October 2018),(Citation: DHS CISA February 2019),(Citation: Dragos Threat Intelligence February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
@@ -1513,37 +1513,37 @@
     <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>,(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: Department of Homeland Security September 2016)</t>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
   </si>
   <si>
     <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT August 2018),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Dragos December 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Max Heinemeyer February 2020),(Citation: Dragos October 2018),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: DHS CISA February 2019),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT August 2018),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: Colin Gray)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos December 2017),(Citation: Dragos October 2018),(Citation: Max Heinemeyer February 2020),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015),(Citation: Ralph Langner November 2013),</t>
@@ -1552,46 +1552,46 @@
     <t>(Citation: Ralph Langner November 2013),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Dragos),(Citation: Junnosuke Yagi March 2017),(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Tom Fakterman August 2019),(Citation: Ionut Arghire August 2019),(Citation: Jeffery Burt August 2019),(Citation: Symantec March 2019),(Citation: Dragos October 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: McAfee Labs October 2019),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Anton Cherepanov),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Eduard Kovacs March 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Novetta Threat Research Group February 2016),(Citation: Dragos),(Citation: Andy Greenburg June 2019),(Citation: Jeff Jones May 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Jos Wetzels January 2018),(Citation: Dragos),(Citation: Tom Fakterman August 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: SecureWorks September 2019),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec Security Response July 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: DHS CISA February 2019),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: McAfee Labs October 2019),(Citation: Kevin Savage and Branko Spasojevic),(Citation: SecureWorks September 2019),(Citation: ESET),(Citation: Symantec),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>,(Citation: National Institute of Standards and Technology April 2013),(Citation: Emerson Exchange),(Citation: North America Transmission Forum December 2019),(Citation: National Security Agency February 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Kyle Wilhoit),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Tom Fakterman August 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Dragos December 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos),(Citation: SecureWorks August 2019),(Citation: Dragos October 2018),(Citation: Microsoft May 2017),(Citation: Microsoft August 2018),(Citation: CISA June 2013),(Citation: Microsoft February 2019),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Ionut Arghire August 2019),(Citation: Symantec March 2019),(Citation: Jeffery Burt August 2019),(Citation: Tom Fakterman August 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos October 2018),(Citation: DHS CISA February 2019),(Citation: Dragos),</t>
+  </si>
+  <si>
+    <t>(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Anton Cherepanov),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Jeff Jones May 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Novetta Threat Research Group February 2016),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Booz Allen Hamilton),(Citation: Andy Greenburg June 2019),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Eduard Kovacs March 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: Jos Wetzels January 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec Security Response July 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Robert A. Martin January 2021),(Citation: OWASP)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: DHS CISA February 2019),(Citation: Department of Homeland Security September 2016),(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureWorks September 2019),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: McAfee Labs October 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>,(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: North America Transmission Forum December 2019),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos December 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos October 2018),(Citation: SecureWorks August 2019),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Microsoft February 2019),(Citation: CISA June 2013),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft May 2017)</t>
   </si>
   <si>
     <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010)</t>
   </si>
   <si>
-    <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
+    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: Bastille April 2017)</t>
   </si>
   <si>
     <t>source name</t>

--- a/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3-techniques.xlsx
+++ b/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3-techniques.xlsx
@@ -1381,25 +1381,25 @@
     <t>(Citation: Joe Slowik August 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>,(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
+    <t>,(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Anton Cherepanov, ESET June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: MDudek-ICS),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
@@ -1408,10 +1408,10 @@
     <t>(Citation: Dragos Inc. June 2017),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>,(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov),(Citation: Dragos Inc. June 2017),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: ESET),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
@@ -1420,37 +1420,37 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: ICS-CERT August 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Eduard Kovacs May 2018),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Symantec Security Response July 2014),(Citation: Chris Bing May 2018),</t>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Eduard Kovacs May 2018),(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),</t>
   </si>
   <si>
     <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Schneider Electric January 2018),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
   </si>
   <si>
     <t>(Citation: DHS CISA February 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dan Goodin March 2017),(Citation: Keith Stouffer May 2015),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Keith Stouffer May 2015),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
@@ -1465,16 +1465,16 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Hydro),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Kelly Jackson Higgins),(Citation: Hydro),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kevin Beaumont),(Citation: Davey Winder June 2020),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Catalin Cimpanu April 2016),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kelly Jackson Higgins),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Davey Winder June 2020),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Dragos October 2018),</t>
@@ -1483,115 +1483,115 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Ralph Langner November 2013),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Tom Fakterman August 2019),(Citation: Dragos October 2018),(Citation: DHS CISA February 2019),(Citation: Dragos Threat Intelligence February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Ralph Langner November 2013),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos October 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Tom Fakterman August 2019),(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Threat Intelligence February 2020),</t>
   </si>
   <si>
     <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
   </si>
   <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019)</t>
+    <t>(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
-  </si>
-  <si>
-    <t>,(Citation: Department of Homeland Security September 2016),(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),</t>
+  </si>
+  <si>
+    <t>(Citation: Carl Hurd March 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: William Largent June 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos December 2017),(Citation: Dragos October 2018),(Citation: Max Heinemeyer February 2020),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),(Citation: Symantec June 2015),(Citation: Ralph Langner November 2013),</t>
+    <t>(Citation: Dragos December 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Max Heinemeyer February 2020),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Ralph Langner November 2013),(Citation: Catalin Cimpanu April 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Symantec June 2015),</t>
   </si>
   <si>
     <t>(Citation: Ralph Langner November 2013),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Ionut Arghire August 2019),(Citation: Symantec March 2019),(Citation: Jeffery Burt August 2019),(Citation: Tom Fakterman August 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos October 2018),(Citation: DHS CISA February 2019),(Citation: Dragos),</t>
-  </si>
-  <si>
-    <t>(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Anton Cherepanov),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Jeff Jones May 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Novetta Threat Research Group February 2016),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos),(Citation: Booz Allen Hamilton),(Citation: Andy Greenburg June 2019),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Eduard Kovacs March 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks September 2019),(Citation: Tom Fakterman August 2019),(Citation: Jos Wetzels January 2018),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec Security Response July 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Robert A. Martin January 2021),(Citation: OWASP)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: DHS CISA February 2019),(Citation: Department of Homeland Security September 2016),(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureWorks September 2019),(Citation: Symantec),(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: McAfee Labs October 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>,(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: North America Transmission Forum December 2019),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Tom Fakterman August 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos December 2017),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos October 2018),(Citation: SecureWorks August 2019),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Microsoft February 2019),(Citation: CISA June 2013),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Microsoft May 2017)</t>
-  </si>
-  <si>
-    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010)</t>
-  </si>
-  <si>
-    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: Bastille April 2017)</t>
+    <t>(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),(Citation: ICS-CERT October 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Ionut Arghire August 2019),(Citation: Symantec March 2019),(Citation: Dragos October 2018),(Citation: Jeffery Burt August 2019),(Citation: Tom Fakterman August 2019),(Citation: DHS CISA February 2019),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov),(Citation: Anton Cherepanov, ESET June 2017),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Jeff Jones May 2018),(Citation: Andy Greenburg June 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Tom Fakterman August 2019),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: SecureWorks September 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: Symantec Security Response July 2014),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: SecureWorks September 2019),(Citation: Symantec),(Citation: McAfee Labs October 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>,(Citation: North America Transmission Forum December 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Tom Fakterman August 2019),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos October 2018),(Citation: SecureWorks August 2019),(Citation: Dragos December 2017),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Microsoft May 2017),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: CISA March 2010),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
   </si>
   <si>
     <t>source name</t>

--- a/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3-techniques.xlsx
+++ b/versions/v11/docs/ics-attack-v11.3/ics-attack-v11.3-techniques.xlsx
@@ -1381,7 +1381,7 @@
     <t>(Citation: Joe Slowik August 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>,(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>,(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Anton Cherepanov, ESET June 2017),</t>
@@ -1393,16 +1393,16 @@
     <t>(Citation: Anton Cherepanov, ESET June 2017),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: MDudek-ICS),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: MDudek-ICS),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
     <t>(Citation: Dragos Inc. June 2017),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
@@ -1411,19 +1411,19 @@
     <t>,(Citation: Department of Homeland Security September 2016),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov),(Citation: Dragos Inc. June 2017),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: ESET),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Dragos Inc. June 2017),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET),(Citation: Kevin Savage and Branko Spasojevic),(Citation: Symantec),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT August 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Anton Cherepanov, ESET June 2017),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: ICS-CERT August 2018),</t>
   </si>
   <si>
     <t>(Citation: MDudek-ICS),(Citation: Department of Homeland Security September 2016)</t>
@@ -1432,25 +1432,25 @@
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Eduard Kovacs May 2018),(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),</t>
+    <t>(Citation: Chris Bing May 2018),(Citation: Symantec Security Response July 2014),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Eduard Kovacs May 2018),</t>
   </si>
   <si>
     <t>(Citation: Jos Wetzels January 2018),(Citation: McCarthy, J et al. July 2018),(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Schneider Electric January 2018),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Keith Stouffer May 2015),(Citation: Dan Goodin March 2017),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: John Hultquist January 2016),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: ICS-CERT December 2014),(Citation: ICS CERT September 2018),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Schneider Electric January 2018),(Citation: DHS CISA February 2019),(Citation: The Office of Nuclear Reactor Regulation),(Citation: ICS-CERT December 2018),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Wikipedia),(Citation: Dan Goodin March 2017),(Citation: Keith Stouffer May 2015),(Citation: Microsoft Security Response Center August 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: John Hultquist January 2016),(Citation: ICS-CERT February 2016),(Citation: Zetter, Kim March 2016),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),</t>
@@ -1459,22 +1459,22 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
   </si>
   <si>
-    <t>(Citation: Anton Cherepanov),(Citation: Jos Wetzels January 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Jos Wetzels January 2018),(Citation: Anton Cherepanov),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Joe Slowik April 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Catalin Cimpanu April 2016),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Kelly Jackson Higgins),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Davey Winder June 2020),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Joe Slowik April 2019),(Citation: Dragos October 2018),(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Catalin Cimpanu April 2016),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: Davey Winder June 2020),(Citation: Hydro),(Citation: Kelly Jackson Higgins),(Citation: Selena Larson, Camille Singleton December 2020),(Citation: Catalin Cimpanu April 2016),(Citation: Marc-Etienne M.Lveill October 2017),(Citation: Kevin Beaumont),(Citation: David Voreacos, Katherine Chinglinsky, Riley Griffin December 2019),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Dragos October 2018),</t>
@@ -1483,28 +1483,28 @@
     <t>(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: M. Rentschler and H. Heine),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: William Largent June 2018),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Booz Allen Hamilton),(Citation: Hydro),(Citation: Kevin Beaumont),(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013),(Citation: M. Rentschler and H. Heine)</t>
+  </si>
+  <si>
+    <t>(Citation: William Largent June 2018),(Citation: Carl Hurd March 2019),</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
   </si>
   <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Ralph Langner November 2013),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security October 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos October 2018),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Tom Fakterman August 2019),(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Threat Intelligence February 2020),</t>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ralph Langner November 2013),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Department of Homeland Security October 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: DHS CISA February 2019),(Citation: Tom Fakterman August 2019),(Citation: Blake Johnson, Dan Caban, Marina Krotofil, Dan Scali, Nathan Brubaker, Christopher Glyer December 2017),(Citation: Dragos October 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos Threat Intelligence February 2020),</t>
   </si>
   <si>
     <t>,(Citation: Department of Homeland Security September 2016),(Citation: N/A)</t>
   </si>
   <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019)</t>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: DHS CISA February 2019),(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: IEC February 2019)</t>
@@ -1513,82 +1513,82 @@
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>,(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Ben Hunter and Fred Gutierrez July 2020),</t>
-  </si>
-  <si>
-    <t>(Citation: Carl Hurd March 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: William Largent June 2018),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Jos Wetzels January 2018),(Citation: IEC February 2019),(Citation: Department of Homeland Security September 2016)</t>
+    <t>,(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov, ESET June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: William Largent June 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Carl Hurd March 2019),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Department of Homeland Security September 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Dragos December 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Max Heinemeyer February 2020),(Citation: North America Transmission Forum December 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: DHS CISA February 2019),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: ICS-CERT August 2018),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Ralph Langner November 2013),(Citation: Catalin Cimpanu April 2016),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Symantec June 2015),</t>
+    <t>(Citation: Max Heinemeyer February 2020),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Dragos October 2018),(Citation: Dragos December 2017),(Citation: North America Transmission Forum December 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Anton Cherepanov, ESET June 2017),(Citation: DHS CISA February 2019),(Citation: Spenneberg, Ralf, Maik Brggemann, and Hendrik Schwartke March 2016),(Citation: Julian Rrushi, Hassan Farhangi, Clay Howey, Kelly Carmichael, Joey Dabell December 2015),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: ICS-CERT August 2018),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec June 2015),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Catalin Cimpanu April 2016),(Citation: Ralph Langner November 2013),</t>
   </si>
   <si>
     <t>(Citation: Ralph Langner November 2013),(Citation: IEC February 2019)</t>
   </si>
   <si>
-    <t>(Citation: Dragos),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Junnosuke Yagi March 2017),(Citation: ICS-CERT October 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Ionut Arghire August 2019),(Citation: Symantec March 2019),(Citation: Dragos October 2018),(Citation: Jeffery Burt August 2019),(Citation: Tom Fakterman August 2019),(Citation: DHS CISA February 2019),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Anton Cherepanov),(Citation: Anton Cherepanov, ESET June 2017),(Citation: McAfee Labs October 2019),(Citation: Department of Homeland Security September 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Jeff Jones May 2018),(Citation: Andy Greenburg June 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),(Citation: Eduard Kovacs March 2018),(Citation: Novetta Threat Research Group February 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Tom Fakterman August 2019),(Citation: Dragos),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: SecureWorks September 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: Symantec Security Response July 2014),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: DHS CISA February 2019),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Intel),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Kevin Savage and Branko Spasojevic),(Citation: ESET),(Citation: SecureWorks September 2019),(Citation: Symantec),(Citation: McAfee Labs October 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>,(Citation: North America Transmission Forum December 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Tom Fakterman August 2019),(Citation: Kyle Wilhoit),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos October 2018),(Citation: SecureWorks August 2019),(Citation: Dragos December 2017),(Citation: Booz Allen Hamilton),(Citation: Dragos),(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Microsoft May 2017),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019)</t>
-  </si>
-  <si>
-    <t>,(Citation: CISA March 2010),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
+    <t>(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Dragos),(Citation: ICS-CERT October 2017),(Citation: Junnosuke Yagi March 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Jeffery Burt August 2019),(Citation: Dragos),(Citation: Tom Fakterman August 2019),(Citation: DHS CISA February 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Dragos October 2018),(Citation: Ionut Arghire August 2019),(Citation: Symantec March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: McAfee Labs October 2019),(Citation: Anton Cherepanov),(Citation: Ben Hunter and Fred Gutierrez July 2020),(Citation: Daniel Kapellmann Zafra, Keith Lunden, Nathan Brubaker, Jeremy Kennelly July 2020),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Novetta Threat Research Group February 2016),(Citation: Dragos),(Citation: Jeff Jones May 2018),(Citation: Jacqueline O'Leary et al. September 2017),(Citation: Andy Greenburg June 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Booz Allen Hamilton),(Citation: Eduard Kovacs March 2018),(Citation: UNITED STATES DISTRICT COURT WESTERN DISTRICT OF PENNSYLVANIA October 2020),</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos),(Citation: Tom Fakterman August 2019),(Citation: Robert Falcone, Bryan Lee May 2016),(Citation: Booz Allen Hamilton),(Citation: SecureWorks September 2019),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Jos Wetzels January 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Symantec Security Response July 2014),(Citation: Dragos Threat Intelligence August 2019),(Citation: OWASP),(Citation: Robert A. Martin January 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: DHS CISA February 2019),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: N/A),(Citation: Department of Homeland Security September 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: McAfee Labs October 2019),(Citation: Symantec),(Citation: ESET),(Citation: SecureWorks September 2019),(Citation: Kevin Savage and Branko Spasojevic),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>,(Citation: North America Transmission Forum December 2019),(Citation: Emerson Exchange),(Citation: National Institute of Standards and Technology April 2013),(Citation: National Security Agency February 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Anton Cherepanov, ESET June 2017),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Tom Fakterman August 2019),(Citation: Daavid Hentunen, Antti Tikkanen June 2014),(Citation: Nicolas Falliere, Liam O Murchu, Eric Chien February 2011),(Citation: Orkhan Mamedov, Fedor Sinitsyn, Anton Ivanov October 2017),(Citation: Kyle Wilhoit),</t>
+  </si>
+  <si>
+    <t>(Citation: Electricity Information Sharing and Analysis Center; SANS Industrial Control Systems March 2016),(Citation: Dragos),(Citation: Dragos December 2017),(Citation: SecureWorks August 2019),(Citation: Dragos October 2018),(Citation: Booz Allen Hamilton),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Microsoft February 2019),(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: CISA June 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>,(Citation: DHS  National Urban Security Technology Laboratory April 2019),(Citation: CISA March 2010)</t>
   </si>
   <si>
     <t>,(Citation: Bastille April 2017),(Citation: DHS  National Urban Security Technology Laboratory April 2019)</t>
